--- a/data/em.xlsx
+++ b/data/em.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_366\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7434CAFA-AD85-401A-AC49-6D2354A830FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{687505F7-3816-47F1-A858-CE454F9D78FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="552">
   <si>
     <t>Department of Education</t>
   </si>
@@ -224,18 +224,6 @@
   </si>
   <si>
     <t>Output 1 Performance Indicator</t>
-  </si>
-  <si>
-    <t>Milestone 1</t>
-  </si>
-  <si>
-    <t>Milestone Indicator 1</t>
-  </si>
-  <si>
-    <t>Milestone 2</t>
-  </si>
-  <si>
-    <t>Milestone Indicator 2</t>
   </si>
   <si>
     <t>Activity 1 of Output 1</t>
@@ -2012,7 +2000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2273,10 +2261,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2769,11 +2753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EB36"/>
+  <dimension ref="A1:EB32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD70"/>
+      <pane ySplit="12" topLeftCell="F13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -2805,8 +2789,8 @@
     <col min="32" max="43" width="8.7109375" style="9" customWidth="1"/>
     <col min="44" max="73" width="15.7109375" style="8" customWidth="1"/>
     <col min="74" max="74" width="61.42578125" style="6" customWidth="1"/>
-    <col min="75" max="79" width="9.140625" style="6" hidden="1"/>
-    <col min="80" max="83" width="9.140625" style="5" hidden="1"/>
+    <col min="75" max="79" width="9.140625" style="6" customWidth="1"/>
+    <col min="80" max="83" width="9.140625" style="5" customWidth="1"/>
     <col min="84" max="132" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -2911,14 +2895,14 @@
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="19"/>
       <c r="I4" s="13"/>
       <c r="J4" s="19"/>
@@ -3216,283 +3200,283 @@
     </row>
     <row r="8" spans="1:118" ht="17.25" customHeight="1"/>
     <row r="9" spans="1:118" ht="21.6" customHeight="1">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="92" t="s">
+      <c r="J9" s="91" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="25"/>
-      <c r="L9" s="92" t="s">
+      <c r="L9" s="91" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="86" t="s">
+      <c r="N9" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="108" t="s">
+      <c r="O9" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="80" t="s">
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="124" t="s">
+      <c r="T9" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="X9" s="113" t="str">
+      <c r="X9" s="112" t="str">
         <f>CONCATENATE("FY ",B5-1," Physical Target")</f>
         <v>FY 2023 Physical Target</v>
       </c>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="113"/>
-      <c r="AB9" s="113"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="111" t="str">
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="112"/>
+      <c r="AD9" s="112"/>
+      <c r="AE9" s="110" t="str">
         <f>CONCATENATE("FY ",B5," Physical Target")</f>
         <v>FY 2024 Physical Target</v>
       </c>
-      <c r="AF9" s="111"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="111"/>
-      <c r="AJ9" s="111"/>
-      <c r="AK9" s="111"/>
-      <c r="AL9" s="111"/>
-      <c r="AM9" s="111"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="112"/>
-      <c r="AR9" s="104" t="str">
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="110"/>
+      <c r="AN9" s="110"/>
+      <c r="AO9" s="110"/>
+      <c r="AP9" s="110"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="103" t="str">
         <f>CONCATENATE("FY ",B5," FINANCIAL OBLIGATION PROGRAM")</f>
         <v>FY 2024 FINANCIAL OBLIGATION PROGRAM</v>
       </c>
-      <c r="AS9" s="105"/>
-      <c r="AT9" s="105"/>
-      <c r="AU9" s="105"/>
-      <c r="AV9" s="105"/>
-      <c r="AW9" s="105"/>
-      <c r="AX9" s="105"/>
-      <c r="AY9" s="105"/>
-      <c r="AZ9" s="105"/>
-      <c r="BA9" s="105"/>
-      <c r="BB9" s="105"/>
-      <c r="BC9" s="105"/>
-      <c r="BD9" s="106"/>
-      <c r="BE9" s="134" t="str">
+      <c r="AS9" s="104"/>
+      <c r="AT9" s="104"/>
+      <c r="AU9" s="104"/>
+      <c r="AV9" s="104"/>
+      <c r="AW9" s="104"/>
+      <c r="AX9" s="104"/>
+      <c r="AY9" s="104"/>
+      <c r="AZ9" s="104"/>
+      <c r="BA9" s="104"/>
+      <c r="BB9" s="104"/>
+      <c r="BC9" s="104"/>
+      <c r="BD9" s="105"/>
+      <c r="BE9" s="133" t="str">
         <f>CONCATENATE("FY ",B5," FINANCIAL DISBURSEMENT PROGRAM")</f>
         <v>FY 2024 FINANCIAL DISBURSEMENT PROGRAM</v>
       </c>
-      <c r="BF9" s="135"/>
-      <c r="BG9" s="135"/>
-      <c r="BH9" s="135"/>
-      <c r="BI9" s="135"/>
-      <c r="BJ9" s="135"/>
-      <c r="BK9" s="135"/>
-      <c r="BL9" s="135"/>
-      <c r="BM9" s="135"/>
-      <c r="BN9" s="135"/>
-      <c r="BO9" s="135"/>
-      <c r="BP9" s="135"/>
-      <c r="BQ9" s="136"/>
-      <c r="BR9" s="125" t="str">
+      <c r="BF9" s="134"/>
+      <c r="BG9" s="134"/>
+      <c r="BH9" s="134"/>
+      <c r="BI9" s="134"/>
+      <c r="BJ9" s="134"/>
+      <c r="BK9" s="134"/>
+      <c r="BL9" s="134"/>
+      <c r="BM9" s="134"/>
+      <c r="BN9" s="134"/>
+      <c r="BO9" s="134"/>
+      <c r="BP9" s="134"/>
+      <c r="BQ9" s="135"/>
+      <c r="BR9" s="124" t="str">
         <f>CONCATENATE("FY ",B5+1," FINANCIAL DISBURSEMENT PROGRAM")</f>
         <v>FY 2025 FINANCIAL DISBURSEMENT PROGRAM</v>
       </c>
-      <c r="BS9" s="126"/>
-      <c r="BT9" s="126"/>
-      <c r="BU9" s="127"/>
-      <c r="BV9" s="89" t="s">
+      <c r="BS9" s="125"/>
+      <c r="BT9" s="125"/>
+      <c r="BU9" s="126"/>
+      <c r="BV9" s="88" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:118" ht="18.600000000000001" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
       <c r="K10" s="26"/>
-      <c r="L10" s="93"/>
+      <c r="L10" s="92"/>
       <c r="M10" s="26"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="88" t="s">
+      <c r="N10" s="85"/>
+      <c r="O10" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="87" t="s">
+      <c r="P10" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="88" t="s">
+      <c r="Q10" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="87" t="s">
+      <c r="R10" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="S10" s="81"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="133" t="s">
+      <c r="S10" s="80"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="123"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="Y10" s="114" t="s">
+      <c r="Y10" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="116"/>
-      <c r="AB10" s="133" t="s">
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="133"/>
-      <c r="AD10" s="133"/>
-      <c r="AE10" s="99" t="s">
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="AF10" s="98" t="s">
+      <c r="AF10" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98" t="s">
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="97"/>
+      <c r="AI10" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="98"/>
-      <c r="AL10" s="98" t="s">
+      <c r="AJ10" s="97"/>
+      <c r="AK10" s="97"/>
+      <c r="AL10" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="AM10" s="98"/>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="98" t="s">
+      <c r="AM10" s="97"/>
+      <c r="AN10" s="97"/>
+      <c r="AO10" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="AP10" s="98"/>
-      <c r="AQ10" s="98"/>
-      <c r="AR10" s="118" t="s">
+      <c r="AP10" s="97"/>
+      <c r="AQ10" s="97"/>
+      <c r="AR10" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="AS10" s="117" t="s">
+      <c r="AS10" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="AT10" s="117"/>
-      <c r="AU10" s="117"/>
-      <c r="AV10" s="117" t="s">
+      <c r="AT10" s="116"/>
+      <c r="AU10" s="116"/>
+      <c r="AV10" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="AW10" s="117"/>
-      <c r="AX10" s="117"/>
-      <c r="AY10" s="117" t="s">
+      <c r="AW10" s="116"/>
+      <c r="AX10" s="116"/>
+      <c r="AY10" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="AZ10" s="117"/>
-      <c r="BA10" s="117"/>
-      <c r="BB10" s="117" t="s">
+      <c r="AZ10" s="116"/>
+      <c r="BA10" s="116"/>
+      <c r="BB10" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="BC10" s="117"/>
-      <c r="BD10" s="117"/>
-      <c r="BE10" s="120" t="s">
+      <c r="BC10" s="116"/>
+      <c r="BD10" s="116"/>
+      <c r="BE10" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="BF10" s="95" t="s">
+      <c r="BF10" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="BG10" s="96"/>
-      <c r="BH10" s="97"/>
-      <c r="BI10" s="95" t="s">
+      <c r="BG10" s="95"/>
+      <c r="BH10" s="96"/>
+      <c r="BI10" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="BJ10" s="96"/>
-      <c r="BK10" s="97"/>
-      <c r="BL10" s="95" t="s">
+      <c r="BJ10" s="95"/>
+      <c r="BK10" s="96"/>
+      <c r="BL10" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="BM10" s="96"/>
-      <c r="BN10" s="97"/>
-      <c r="BO10" s="95" t="s">
+      <c r="BM10" s="95"/>
+      <c r="BN10" s="96"/>
+      <c r="BO10" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="BP10" s="96"/>
-      <c r="BQ10" s="97"/>
-      <c r="BR10" s="128" t="s">
+      <c r="BP10" s="95"/>
+      <c r="BQ10" s="96"/>
+      <c r="BR10" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="BS10" s="130" t="s">
+      <c r="BS10" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="BT10" s="131"/>
-      <c r="BU10" s="132"/>
-      <c r="BV10" s="90"/>
+      <c r="BT10" s="130"/>
+      <c r="BU10" s="131"/>
+      <c r="BV10" s="89"/>
     </row>
     <row r="11" spans="1:118" ht="25.15" customHeight="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
       <c r="K11" s="28"/>
-      <c r="L11" s="94"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="28"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="133"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="132"/>
       <c r="Y11" s="27" t="s">
         <v>37</v>
       </c>
@@ -3511,7 +3495,7 @@
       <c r="AD11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AE11" s="100"/>
+      <c r="AE11" s="99"/>
       <c r="AF11" s="29" t="s">
         <v>43</v>
       </c>
@@ -3548,7 +3532,7 @@
       <c r="AQ11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AR11" s="119"/>
+      <c r="AR11" s="118"/>
       <c r="AS11" s="30" t="s">
         <v>43</v>
       </c>
@@ -3585,7 +3569,7 @@
       <c r="BD11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="BE11" s="121"/>
+      <c r="BE11" s="120"/>
       <c r="BF11" s="31" t="s">
         <v>43</v>
       </c>
@@ -3622,7 +3606,7 @@
       <c r="BQ11" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="BR11" s="129"/>
+      <c r="BR11" s="128"/>
       <c r="BS11" s="32" t="s">
         <v>43</v>
       </c>
@@ -3632,85 +3616,85 @@
       <c r="BU11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="BV11" s="91"/>
+      <c r="BV11" s="90"/>
     </row>
     <row r="12" spans="1:118" ht="24" customHeight="1">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="102"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="102"/>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="102"/>
-      <c r="AH12" s="102"/>
-      <c r="AI12" s="102"/>
-      <c r="AJ12" s="102"/>
-      <c r="AK12" s="102"/>
-      <c r="AL12" s="102"/>
-      <c r="AM12" s="102"/>
-      <c r="AN12" s="102"/>
-      <c r="AO12" s="102"/>
-      <c r="AP12" s="102"/>
-      <c r="AQ12" s="102"/>
-      <c r="AR12" s="102"/>
-      <c r="AS12" s="102"/>
-      <c r="AT12" s="102"/>
-      <c r="AU12" s="102"/>
-      <c r="AV12" s="102"/>
-      <c r="AW12" s="102"/>
-      <c r="AX12" s="102"/>
-      <c r="AY12" s="102"/>
-      <c r="AZ12" s="102"/>
-      <c r="BA12" s="102"/>
-      <c r="BB12" s="102"/>
-      <c r="BC12" s="102"/>
-      <c r="BD12" s="102"/>
-      <c r="BE12" s="102"/>
-      <c r="BF12" s="102"/>
-      <c r="BG12" s="102"/>
-      <c r="BH12" s="102"/>
-      <c r="BI12" s="102"/>
-      <c r="BJ12" s="102"/>
-      <c r="BK12" s="102"/>
-      <c r="BL12" s="102"/>
-      <c r="BM12" s="102"/>
-      <c r="BN12" s="102"/>
-      <c r="BO12" s="102"/>
-      <c r="BP12" s="102"/>
-      <c r="BQ12" s="102"/>
-      <c r="BR12" s="102"/>
-      <c r="BS12" s="102"/>
-      <c r="BT12" s="102"/>
-      <c r="BU12" s="102"/>
-      <c r="BV12" s="103"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="101"/>
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="101"/>
+      <c r="AF12" s="101"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="101"/>
+      <c r="AJ12" s="101"/>
+      <c r="AK12" s="101"/>
+      <c r="AL12" s="101"/>
+      <c r="AM12" s="101"/>
+      <c r="AN12" s="101"/>
+      <c r="AO12" s="101"/>
+      <c r="AP12" s="101"/>
+      <c r="AQ12" s="101"/>
+      <c r="AR12" s="101"/>
+      <c r="AS12" s="101"/>
+      <c r="AT12" s="101"/>
+      <c r="AU12" s="101"/>
+      <c r="AV12" s="101"/>
+      <c r="AW12" s="101"/>
+      <c r="AX12" s="101"/>
+      <c r="AY12" s="101"/>
+      <c r="AZ12" s="101"/>
+      <c r="BA12" s="101"/>
+      <c r="BB12" s="101"/>
+      <c r="BC12" s="101"/>
+      <c r="BD12" s="101"/>
+      <c r="BE12" s="101"/>
+      <c r="BF12" s="101"/>
+      <c r="BG12" s="101"/>
+      <c r="BH12" s="101"/>
+      <c r="BI12" s="101"/>
+      <c r="BJ12" s="101"/>
+      <c r="BK12" s="101"/>
+      <c r="BL12" s="101"/>
+      <c r="BM12" s="101"/>
+      <c r="BN12" s="101"/>
+      <c r="BO12" s="101"/>
+      <c r="BP12" s="101"/>
+      <c r="BQ12" s="101"/>
+      <c r="BR12" s="101"/>
+      <c r="BS12" s="101"/>
+      <c r="BT12" s="101"/>
+      <c r="BU12" s="101"/>
+      <c r="BV12" s="102"/>
       <c r="BW12" s="6">
         <v>57</v>
       </c>
@@ -3839,23 +3823,23 @@
       <c r="BU13" s="43"/>
       <c r="BV13" s="46"/>
       <c r="BY13" s="6">
-        <f t="shared" ref="BY13:BY21" si="0">IF(ISBLANK(C13),0,1)</f>
+        <f t="shared" ref="BY13:BY17" si="0">IF(ISBLANK(C13),0,1)</f>
         <v>1</v>
       </c>
       <c r="BZ13" s="6">
-        <f t="shared" ref="BZ13:BZ21" si="1">IF(ISBLANK(D13),0,1)</f>
+        <f t="shared" ref="BZ13:BZ17" si="1">IF(ISBLANK(D13),0,1)</f>
         <v>0</v>
       </c>
       <c r="CA13" s="6">
-        <f t="shared" ref="CA13:CA21" si="2">IF(ISBLANK(F13),0,1)</f>
+        <f t="shared" ref="CA13:CA17" si="2">IF(ISBLANK(F13),0,1)</f>
         <v>0</v>
       </c>
       <c r="CB13" s="5">
-        <f t="shared" ref="CB13:CB21" si="3">IF(ISBLANK(G13),0,1)</f>
+        <f t="shared" ref="CB13:CB17" si="3">IF(ISBLANK(G13),0,1)</f>
         <v>0</v>
       </c>
       <c r="CC13" s="5">
-        <f t="shared" ref="CC13:CC21" si="4">IF(ISBLANK(N13),0,1)</f>
+        <f t="shared" ref="CC13:CC17" si="4">IF(ISBLANK(N13),0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3970,34 +3954,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:118" ht="24" customHeight="1">
+    <row r="15" spans="1:118" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="75"/>
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="48" t="s">
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="41"/>
       <c r="H15" s="48" t="s">
         <v>54</v>
       </c>
       <c r="I15" s="40"/>
       <c r="J15" s="41"/>
-      <c r="K15" s="48"/>
+      <c r="K15" s="48" t="e">
+        <f>VLOOKUP(J15,links!B$2:C$24,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
       <c r="O15" s="42"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
+      <c r="R15" s="51">
+        <f>SUM(R16:R17)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="51"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
       <c r="X15" s="49">
         <f>SUM(Y15:AD15)</f>
         <v>0</v>
@@ -4024,36 +4014,126 @@
       <c r="AO15" s="50"/>
       <c r="AP15" s="50"/>
       <c r="AQ15" s="50"/>
-      <c r="AR15" s="43"/>
-      <c r="AS15" s="43"/>
-      <c r="AT15" s="43"/>
-      <c r="AU15" s="43"/>
-      <c r="AV15" s="43"/>
-      <c r="AW15" s="43"/>
-      <c r="AX15" s="43"/>
-      <c r="AY15" s="43"/>
-      <c r="AZ15" s="43"/>
-      <c r="BA15" s="43"/>
-      <c r="BB15" s="43"/>
-      <c r="BC15" s="43"/>
-      <c r="BD15" s="43"/>
-      <c r="BE15" s="43"/>
-      <c r="BF15" s="43"/>
-      <c r="BG15" s="43"/>
-      <c r="BH15" s="43"/>
-      <c r="BI15" s="43"/>
-      <c r="BJ15" s="43"/>
-      <c r="BK15" s="43"/>
-      <c r="BL15" s="43"/>
-      <c r="BM15" s="43"/>
-      <c r="BN15" s="43"/>
-      <c r="BO15" s="43"/>
-      <c r="BP15" s="43"/>
-      <c r="BQ15" s="43"/>
-      <c r="BR15" s="43"/>
-      <c r="BS15" s="43"/>
-      <c r="BT15" s="43"/>
-      <c r="BU15" s="43"/>
+      <c r="AR15" s="51">
+        <f>SUM(AR16:AR17)</f>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="51">
+        <f>SUM(AS16:AS17)</f>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="51">
+        <f>SUM(AT16:AT17)</f>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="51">
+        <f>SUM(AU16:AU17)</f>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="51">
+        <f>SUM(AV16:AV17)</f>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="51">
+        <f>SUM(AW16:AW17)</f>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="51">
+        <f>SUM(AX16:AX17)</f>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="51">
+        <f>SUM(AY16:AY17)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="51">
+        <f>SUM(AZ16:AZ17)</f>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="51">
+        <f>SUM(BA16:BA17)</f>
+        <v>0</v>
+      </c>
+      <c r="BB15" s="51">
+        <f>SUM(BB16:BB17)</f>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="51">
+        <f>SUM(BC16:BC17)</f>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="51">
+        <f>SUM(BD16:BD17)</f>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="51">
+        <f>SUM(BE16:BE17)</f>
+        <v>0</v>
+      </c>
+      <c r="BF15" s="51">
+        <f>SUM(BF16:BF17)</f>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="51">
+        <f>SUM(BG16:BG17)</f>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="51">
+        <f>SUM(BH16:BH17)</f>
+        <v>0</v>
+      </c>
+      <c r="BI15" s="51">
+        <f>SUM(BI16:BI17)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="51">
+        <f>SUM(BJ16:BJ17)</f>
+        <v>0</v>
+      </c>
+      <c r="BK15" s="51">
+        <f>SUM(BK16:BK17)</f>
+        <v>0</v>
+      </c>
+      <c r="BL15" s="51">
+        <f>SUM(BL16:BL17)</f>
+        <v>0</v>
+      </c>
+      <c r="BM15" s="51">
+        <f>SUM(BM16:BM17)</f>
+        <v>0</v>
+      </c>
+      <c r="BN15" s="51">
+        <f>SUM(BN16:BN17)</f>
+        <v>0</v>
+      </c>
+      <c r="BO15" s="51">
+        <f>SUM(BO16:BO17)</f>
+        <v>0</v>
+      </c>
+      <c r="BP15" s="51">
+        <f>SUM(BP16:BP17)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="51">
+        <f>SUM(BQ16:BQ17)</f>
+        <v>0</v>
+      </c>
+      <c r="BR15" s="51">
+        <f>SUM(BR16:BR17)</f>
+        <v>0</v>
+      </c>
+      <c r="BS15" s="51">
+        <f>SUM(BS16:BS17)</f>
+        <v>0</v>
+      </c>
+      <c r="BT15" s="51">
+        <f>SUM(BT16:BT17)</f>
+        <v>0</v>
+      </c>
+      <c r="BU15" s="51">
+        <f>SUM(BU16:BU17)</f>
+        <v>0</v>
+      </c>
       <c r="BV15" s="46"/>
       <c r="BY15" s="6">
         <f t="shared" si="0"/>
@@ -4065,102 +4145,120 @@
       </c>
       <c r="CA15" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB15" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC15" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:118" ht="24" customHeight="1">
+    <row r="16" spans="1:118" ht="22.9" customHeight="1">
       <c r="A16" s="75"/>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="48" t="s">
-        <v>55</v>
-      </c>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48" t="e">
+        <f>VLOOKUP(J16,links!B$2:C$24,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48" t="e">
+        <f>VLOOKUP(L16,links!K$2:L$222,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="48"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="54">
+        <v>1</v>
+      </c>
+      <c r="R16" s="56">
+        <f>O16*P16*Q16</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="55"/>
+      <c r="T16" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="49">
-        <f>SUM(Y16:AD16)</f>
+      <c r="U16" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="V16" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" s="57"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="56">
+        <f>SUM(AS16:BD16)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="49">
-        <f>SUM(AF16:AQ16)</f>
+      <c r="AS16" s="58"/>
+      <c r="AT16" s="58"/>
+      <c r="AU16" s="58"/>
+      <c r="AV16" s="58"/>
+      <c r="AW16" s="58"/>
+      <c r="AX16" s="58"/>
+      <c r="AY16" s="58"/>
+      <c r="AZ16" s="58"/>
+      <c r="BA16" s="58"/>
+      <c r="BB16" s="58"/>
+      <c r="BC16" s="58"/>
+      <c r="BD16" s="58"/>
+      <c r="BE16" s="56">
+        <f>SUM(BF16:BQ16)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="43"/>
-      <c r="AS16" s="43"/>
-      <c r="AT16" s="43"/>
-      <c r="AU16" s="43"/>
-      <c r="AV16" s="43"/>
-      <c r="AW16" s="43"/>
-      <c r="AX16" s="43"/>
-      <c r="AY16" s="43"/>
-      <c r="AZ16" s="43"/>
-      <c r="BA16" s="43"/>
-      <c r="BB16" s="43"/>
-      <c r="BC16" s="43"/>
-      <c r="BD16" s="43"/>
-      <c r="BE16" s="43"/>
-      <c r="BF16" s="43"/>
-      <c r="BG16" s="43"/>
-      <c r="BH16" s="43"/>
-      <c r="BI16" s="43"/>
-      <c r="BJ16" s="43"/>
-      <c r="BK16" s="43"/>
-      <c r="BL16" s="43"/>
-      <c r="BM16" s="43"/>
-      <c r="BN16" s="43"/>
-      <c r="BO16" s="43"/>
-      <c r="BP16" s="43"/>
-      <c r="BQ16" s="43"/>
-      <c r="BR16" s="43"/>
-      <c r="BS16" s="43"/>
-      <c r="BT16" s="43"/>
-      <c r="BU16" s="43"/>
-      <c r="BV16" s="46"/>
+      <c r="BF16" s="58"/>
+      <c r="BG16" s="58"/>
+      <c r="BH16" s="58"/>
+      <c r="BI16" s="58"/>
+      <c r="BJ16" s="58"/>
+      <c r="BK16" s="58"/>
+      <c r="BL16" s="58"/>
+      <c r="BM16" s="58"/>
+      <c r="BN16" s="58"/>
+      <c r="BO16" s="58"/>
+      <c r="BP16" s="58"/>
+      <c r="BQ16" s="58"/>
+      <c r="BR16" s="58">
+        <f>SUM(BS16:BU16)</f>
+        <v>0</v>
+      </c>
+      <c r="BS16" s="58"/>
+      <c r="BT16" s="58"/>
+      <c r="BU16" s="58"/>
+      <c r="BV16" s="59"/>
       <c r="BY16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4171,7 +4269,7 @@
       </c>
       <c r="CA16" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB16" s="5">
         <f t="shared" si="3"/>
@@ -4182,187 +4280,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:81" ht="19.899999999999999" customHeight="1">
+    <row r="17" spans="1:81" ht="22.9" customHeight="1">
       <c r="A17" s="75"/>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="41"/>
-      <c r="G17" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="48"/>
       <c r="K17" s="48" t="e">
         <f>VLOOKUP(J17,links!B$2:C$24,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="51">
-        <f>SUM(R18:R21)</f>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48" t="e">
+        <f>VLOOKUP(L17,links!K$2:L$222,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N17" s="48"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="54">
+        <v>1</v>
+      </c>
+      <c r="R17" s="56">
+        <f>O17*P17*Q17</f>
         <v>0</v>
       </c>
-      <c r="S17" s="51"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="49">
-        <f>SUM(Y17:AD17)</f>
+      <c r="S17" s="55"/>
+      <c r="T17" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="U17" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" s="57"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="45"/>
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="45"/>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="45"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="45"/>
+      <c r="AR17" s="56">
+        <f>SUM(AS17:BD17)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="49">
-        <f>SUM(AF17:AQ17)</f>
+      <c r="AS17" s="58"/>
+      <c r="AT17" s="58"/>
+      <c r="AU17" s="58"/>
+      <c r="AV17" s="58"/>
+      <c r="AW17" s="58"/>
+      <c r="AX17" s="58"/>
+      <c r="AY17" s="58"/>
+      <c r="AZ17" s="58"/>
+      <c r="BA17" s="58"/>
+      <c r="BB17" s="58"/>
+      <c r="BC17" s="58"/>
+      <c r="BD17" s="58"/>
+      <c r="BE17" s="56">
+        <f>SUM(BF17:BQ17)</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="50"/>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="51">
-        <f t="shared" ref="AR17:BU17" si="5">SUM(AR18:AR21)</f>
+      <c r="BF17" s="58"/>
+      <c r="BG17" s="58"/>
+      <c r="BH17" s="58"/>
+      <c r="BI17" s="58"/>
+      <c r="BJ17" s="58"/>
+      <c r="BK17" s="58"/>
+      <c r="BL17" s="58"/>
+      <c r="BM17" s="58"/>
+      <c r="BN17" s="58"/>
+      <c r="BO17" s="58"/>
+      <c r="BP17" s="58"/>
+      <c r="BQ17" s="58"/>
+      <c r="BR17" s="58">
+        <f>SUM(BS17:BU17)</f>
         <v>0</v>
       </c>
-      <c r="AS17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AT17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AV17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AW17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AX17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AY17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BA17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BB17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BC17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BD17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BF17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BG17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BH17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BI17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BL17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BM17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BN17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BO17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BP17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BQ17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BR17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BS17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BT17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BU17" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BV17" s="46"/>
+      <c r="BS17" s="58"/>
+      <c r="BT17" s="58"/>
+      <c r="BU17" s="58"/>
+      <c r="BV17" s="59"/>
       <c r="BY17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4377,786 +4397,290 @@
       </c>
       <c r="CB17" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:81" ht="22.9" customHeight="1">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="53" t="s">
+    <row r="18" spans="1:81" ht="7.5" customHeight="1">
+      <c r="A18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="83"/>
+      <c r="AO18" s="83"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="83"/>
+      <c r="AR18" s="83"/>
+      <c r="AS18" s="83"/>
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="83"/>
+      <c r="AX18" s="83"/>
+      <c r="AY18" s="83"/>
+      <c r="AZ18" s="83"/>
+      <c r="BA18" s="83"/>
+      <c r="BB18" s="83"/>
+      <c r="BC18" s="83"/>
+      <c r="BD18" s="83"/>
+      <c r="BE18" s="83"/>
+      <c r="BF18" s="83"/>
+      <c r="BG18" s="83"/>
+      <c r="BH18" s="83"/>
+      <c r="BI18" s="83"/>
+      <c r="BJ18" s="83"/>
+      <c r="BK18" s="83"/>
+      <c r="BL18" s="83"/>
+      <c r="BM18" s="83"/>
+      <c r="BN18" s="83"/>
+      <c r="BO18" s="83"/>
+      <c r="BP18" s="83"/>
+      <c r="BQ18" s="83"/>
+      <c r="BR18" s="83"/>
+      <c r="BS18" s="83"/>
+      <c r="BT18" s="83"/>
+      <c r="BU18" s="83"/>
+      <c r="BV18" s="84"/>
+    </row>
+    <row r="19" spans="1:81" ht="24" customHeight="1">
+      <c r="A19" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="69"/>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="67"/>
+      <c r="AS19" s="67"/>
+      <c r="AT19" s="67"/>
+      <c r="AU19" s="67"/>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="67"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="67"/>
+      <c r="BG19" s="67"/>
+      <c r="BH19" s="67"/>
+      <c r="BI19" s="67"/>
+      <c r="BJ19" s="67"/>
+      <c r="BK19" s="67"/>
+      <c r="BL19" s="67"/>
+      <c r="BM19" s="67"/>
+      <c r="BN19" s="67"/>
+      <c r="BO19" s="67"/>
+      <c r="BP19" s="67"/>
+      <c r="BQ19" s="67"/>
+      <c r="BR19" s="67"/>
+      <c r="BS19" s="67"/>
+      <c r="BT19" s="67"/>
+      <c r="BU19" s="67"/>
+      <c r="BV19" s="67"/>
+    </row>
+    <row r="22" spans="1:81" ht="15" customHeight="1">
+      <c r="A22" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="F22" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48" t="e">
-        <f>VLOOKUP(J18,links!B$2:C$24,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48" t="e">
-        <f>VLOOKUP(L18,links!K$2:L$222,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N18" s="48"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="54">
-        <v>1</v>
-      </c>
-      <c r="R18" s="56">
-        <f>O18*P18*Q18</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="55"/>
-      <c r="T18" s="57" t="s">
+      <c r="G22" s="71"/>
+      <c r="I22" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="U18" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="V18" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="W18" s="57"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="56">
-        <f>SUM(AS18:BD18)</f>
-        <v>0</v>
-      </c>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="58"/>
-      <c r="AU18" s="58"/>
-      <c r="AV18" s="58"/>
-      <c r="AW18" s="58"/>
-      <c r="AX18" s="58"/>
-      <c r="AY18" s="58"/>
-      <c r="AZ18" s="58"/>
-      <c r="BA18" s="58"/>
-      <c r="BB18" s="58"/>
-      <c r="BC18" s="58"/>
-      <c r="BD18" s="58"/>
-      <c r="BE18" s="56">
-        <f>SUM(BF18:BQ18)</f>
-        <v>0</v>
-      </c>
-      <c r="BF18" s="58"/>
-      <c r="BG18" s="58"/>
-      <c r="BH18" s="58"/>
-      <c r="BI18" s="58"/>
-      <c r="BJ18" s="58"/>
-      <c r="BK18" s="58"/>
-      <c r="BL18" s="58"/>
-      <c r="BM18" s="58"/>
-      <c r="BN18" s="58"/>
-      <c r="BO18" s="58"/>
-      <c r="BP18" s="58"/>
-      <c r="BQ18" s="58"/>
-      <c r="BR18" s="58">
-        <f>SUM(BS18:BU18)</f>
-        <v>0</v>
-      </c>
-      <c r="BS18" s="58"/>
-      <c r="BT18" s="58"/>
-      <c r="BU18" s="58"/>
-      <c r="BV18" s="59"/>
-      <c r="BY18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BZ18" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CA18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CB18" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="CC18" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:81" ht="22.9" customHeight="1">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48" t="e">
-        <f>VLOOKUP(J19,links!B$2:C$24,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48" t="e">
-        <f>VLOOKUP(L19,links!K$2:L$222,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="54">
-        <v>1</v>
-      </c>
-      <c r="R19" s="56">
-        <f>O19*P19*Q19</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="55"/>
-      <c r="T19" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="U19" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="V19" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="W19" s="57"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
-      <c r="AQ19" s="45"/>
-      <c r="AR19" s="56">
-        <f>SUM(AS19:BD19)</f>
-        <v>0</v>
-      </c>
-      <c r="AS19" s="58"/>
-      <c r="AT19" s="58"/>
-      <c r="AU19" s="58"/>
-      <c r="AV19" s="58"/>
-      <c r="AW19" s="58"/>
-      <c r="AX19" s="58"/>
-      <c r="AY19" s="58"/>
-      <c r="AZ19" s="58"/>
-      <c r="BA19" s="58"/>
-      <c r="BB19" s="58"/>
-      <c r="BC19" s="58"/>
-      <c r="BD19" s="58"/>
-      <c r="BE19" s="56">
-        <f>SUM(BF19:BQ19)</f>
-        <v>0</v>
-      </c>
-      <c r="BF19" s="58"/>
-      <c r="BG19" s="58"/>
-      <c r="BH19" s="58"/>
-      <c r="BI19" s="58"/>
-      <c r="BJ19" s="58"/>
-      <c r="BK19" s="58"/>
-      <c r="BL19" s="58"/>
-      <c r="BM19" s="58"/>
-      <c r="BN19" s="58"/>
-      <c r="BO19" s="58"/>
-      <c r="BP19" s="58"/>
-      <c r="BQ19" s="58"/>
-      <c r="BR19" s="58">
-        <f>SUM(BS19:BU19)</f>
-        <v>0</v>
-      </c>
-      <c r="BS19" s="58"/>
-      <c r="BT19" s="58"/>
-      <c r="BU19" s="58"/>
-      <c r="BV19" s="59"/>
-      <c r="BY19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BZ19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CA19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CB19" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="CC19" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:81" ht="22.9" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48" t="e">
-        <f>VLOOKUP(J20,links!B$2:C$24,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48" t="e">
-        <f>VLOOKUP(L20,links!K$2:L$222,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N20" s="48"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="54">
-        <v>1</v>
-      </c>
-      <c r="R20" s="56">
-        <f>O20*P20*Q20</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="55"/>
-      <c r="T20" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="U20" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="V20" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="W20" s="57"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="56">
-        <f>SUM(AS20:BD20)</f>
-        <v>0</v>
-      </c>
-      <c r="AS20" s="58"/>
-      <c r="AT20" s="58"/>
-      <c r="AU20" s="58"/>
-      <c r="AV20" s="58"/>
-      <c r="AW20" s="58"/>
-      <c r="AX20" s="58"/>
-      <c r="AY20" s="58"/>
-      <c r="AZ20" s="58"/>
-      <c r="BA20" s="58"/>
-      <c r="BB20" s="58"/>
-      <c r="BC20" s="58"/>
-      <c r="BD20" s="58"/>
-      <c r="BE20" s="56">
-        <f>SUM(BF20:BQ20)</f>
-        <v>0</v>
-      </c>
-      <c r="BF20" s="58"/>
-      <c r="BG20" s="58"/>
-      <c r="BH20" s="58"/>
-      <c r="BI20" s="58"/>
-      <c r="BJ20" s="58"/>
-      <c r="BK20" s="58"/>
-      <c r="BL20" s="58"/>
-      <c r="BM20" s="58"/>
-      <c r="BN20" s="58"/>
-      <c r="BO20" s="58"/>
-      <c r="BP20" s="58"/>
-      <c r="BQ20" s="58"/>
-      <c r="BR20" s="58">
-        <f>SUM(BS20:BU20)</f>
-        <v>0</v>
-      </c>
-      <c r="BS20" s="58"/>
-      <c r="BT20" s="58"/>
-      <c r="BU20" s="58"/>
-      <c r="BV20" s="59"/>
-      <c r="BY20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BZ20" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CA20" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CB20" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="CC20" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:81" ht="22.9" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48" t="e">
-        <f>VLOOKUP(J21,links!B$2:C$24,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48" t="e">
-        <f>VLOOKUP(L21,links!K$2:L$222,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N21" s="48"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="54">
-        <v>1</v>
-      </c>
-      <c r="R21" s="56">
-        <f>O21*P21*Q21</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="55"/>
-      <c r="T21" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="U21" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="V21" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="W21" s="57"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="56">
-        <f>SUM(AS21:BD21)</f>
-        <v>0</v>
-      </c>
-      <c r="AS21" s="58"/>
-      <c r="AT21" s="58"/>
-      <c r="AU21" s="58"/>
-      <c r="AV21" s="58"/>
-      <c r="AW21" s="58"/>
-      <c r="AX21" s="58"/>
-      <c r="AY21" s="58"/>
-      <c r="AZ21" s="58"/>
-      <c r="BA21" s="58"/>
-      <c r="BB21" s="58"/>
-      <c r="BC21" s="58"/>
-      <c r="BD21" s="58"/>
-      <c r="BE21" s="56">
-        <f>SUM(BF21:BQ21)</f>
-        <v>0</v>
-      </c>
-      <c r="BF21" s="58"/>
-      <c r="BG21" s="58"/>
-      <c r="BH21" s="58"/>
-      <c r="BI21" s="58"/>
-      <c r="BJ21" s="58"/>
-      <c r="BK21" s="58"/>
-      <c r="BL21" s="58"/>
-      <c r="BM21" s="58"/>
-      <c r="BN21" s="58"/>
-      <c r="BO21" s="58"/>
-      <c r="BP21" s="58"/>
-      <c r="BQ21" s="58"/>
-      <c r="BR21" s="58">
-        <f>SUM(BS21:BU21)</f>
-        <v>0</v>
-      </c>
-      <c r="BS21" s="58"/>
-      <c r="BT21" s="58"/>
-      <c r="BU21" s="58"/>
-      <c r="BV21" s="59"/>
-      <c r="BY21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BZ21" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CA21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CB21" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="CC21" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:81" ht="7.5" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="84"/>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="84"/>
-      <c r="AP22" s="84"/>
-      <c r="AQ22" s="84"/>
-      <c r="AR22" s="84"/>
-      <c r="AS22" s="84"/>
-      <c r="AT22" s="84"/>
-      <c r="AU22" s="84"/>
-      <c r="AV22" s="84"/>
-      <c r="AW22" s="84"/>
-      <c r="AX22" s="84"/>
-      <c r="AY22" s="84"/>
-      <c r="AZ22" s="84"/>
-      <c r="BA22" s="84"/>
-      <c r="BB22" s="84"/>
-      <c r="BC22" s="84"/>
-      <c r="BD22" s="84"/>
-      <c r="BE22" s="84"/>
-      <c r="BF22" s="84"/>
-      <c r="BG22" s="84"/>
-      <c r="BH22" s="84"/>
-      <c r="BI22" s="84"/>
-      <c r="BJ22" s="84"/>
-      <c r="BK22" s="84"/>
-      <c r="BL22" s="84"/>
-      <c r="BM22" s="84"/>
-      <c r="BN22" s="84"/>
-      <c r="BO22" s="84"/>
-      <c r="BP22" s="84"/>
-      <c r="BQ22" s="84"/>
-      <c r="BR22" s="84"/>
-      <c r="BS22" s="84"/>
-      <c r="BT22" s="84"/>
-      <c r="BU22" s="84"/>
-      <c r="BV22" s="85"/>
-    </row>
-    <row r="23" spans="1:81" ht="24" customHeight="1">
-      <c r="A23" s="60" t="s">
+      <c r="N22" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="69"/>
-      <c r="AC23" s="69"/>
-      <c r="AD23" s="69"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="69"/>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="69"/>
-      <c r="AL23" s="69"/>
-      <c r="AM23" s="69"/>
-      <c r="AN23" s="69"/>
-      <c r="AO23" s="69"/>
-      <c r="AP23" s="69"/>
-      <c r="AQ23" s="69"/>
-      <c r="AR23" s="67"/>
-      <c r="AS23" s="67"/>
-      <c r="AT23" s="67"/>
-      <c r="AU23" s="67"/>
-      <c r="AV23" s="67"/>
-      <c r="AW23" s="67"/>
-      <c r="AX23" s="67"/>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="67"/>
-      <c r="BA23" s="67"/>
-      <c r="BB23" s="67"/>
-      <c r="BC23" s="67"/>
-      <c r="BD23" s="67"/>
-      <c r="BE23" s="67"/>
-      <c r="BF23" s="67"/>
-      <c r="BG23" s="67"/>
-      <c r="BH23" s="67"/>
-      <c r="BI23" s="67"/>
-      <c r="BJ23" s="67"/>
-      <c r="BK23" s="67"/>
-      <c r="BL23" s="67"/>
-      <c r="BM23" s="67"/>
-      <c r="BN23" s="67"/>
-      <c r="BO23" s="67"/>
-      <c r="BP23" s="67"/>
-      <c r="BQ23" s="67"/>
-      <c r="BR23" s="67"/>
-      <c r="BS23" s="67"/>
-      <c r="BT23" s="67"/>
-      <c r="BU23" s="67"/>
-      <c r="BV23" s="67"/>
+    </row>
+    <row r="23" spans="1:81" ht="15" customHeight="1">
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:81" ht="15" customHeight="1">
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:81" ht="15" customHeight="1">
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:81" ht="15" customHeight="1">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+    </row>
+    <row r="27" spans="1:81" ht="15" customHeight="1">
+      <c r="A27" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="F26" s="70" t="s">
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="F27" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="70"/>
+      <c r="I27" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="70"/>
+      <c r="N27" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="O27" s="74"/>
+    </row>
+    <row r="28" spans="1:81" ht="15" customHeight="1">
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="74"/>
+    </row>
+    <row r="29" spans="1:81" ht="15" customHeight="1">
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+    </row>
+    <row r="30" spans="1:81" ht="15" customHeight="1">
+      <c r="A30" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="71"/>
-      <c r="I26" s="70" t="s">
+      <c r="F30" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:81" ht="15" customHeight="1">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:81" ht="15" customHeight="1">
+      <c r="A32" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:81" ht="15" customHeight="1">
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" spans="1:81" ht="15" customHeight="1">
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" spans="1:81" ht="15" customHeight="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="73"/>
-    </row>
-    <row r="30" spans="1:81" ht="15" customHeight="1">
-      <c r="A30" s="123"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-    </row>
-    <row r="31" spans="1:81" ht="15" customHeight="1">
-      <c r="A31" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="F31" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="70"/>
-      <c r="I31" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="J31" s="70"/>
-      <c r="N31" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="O31" s="74"/>
-    </row>
-    <row r="32" spans="1:81" ht="15" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="74"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1">
-      <c r="A33" s="122"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-    </row>
-    <row r="34" spans="1:16" ht="15" customHeight="1">
-      <c r="A34" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="N34" s="70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="15" customHeight="1">
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1">
-      <c r="A36" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="N36" s="70" t="s">
-        <v>68</v>
+      <c r="F32" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="N32" s="70" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="59">
     <mergeCell ref="W9:W11"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N29:P29"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BR10:BR11"/>
     <mergeCell ref="BS10:BU10"/>
@@ -5170,12 +4694,12 @@
     <mergeCell ref="BE9:BQ9"/>
     <mergeCell ref="AB10:AD10"/>
     <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="AS10:AU10"/>
     <mergeCell ref="AV10:AX10"/>
     <mergeCell ref="AY10:BA10"/>
@@ -5198,7 +4722,7 @@
     <mergeCell ref="AO10:AQ10"/>
     <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="S9:S11"/>
-    <mergeCell ref="A22:BV22"/>
+    <mergeCell ref="A18:BV18"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="P10:P11"/>
@@ -5214,20 +4738,14 @@
     <mergeCell ref="AE10:AE11"/>
     <mergeCell ref="A12:BV12"/>
   </mergeCells>
-  <dataValidations count="17">
+  <dataValidations count="11">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="M13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT(K13)</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="M14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT(K13)</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="M15" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>INDIRECT(K13)</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="M16" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>INDIRECT(K13)</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="M17" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="M15" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>INDIRECT(K13)</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="L13" xr:uid="{00000000-0002-0000-0000-000007000000}">
@@ -5236,13 +4754,7 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="L14" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>INDIRECT(K13)</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="L15" xr:uid="{00000000-0002-0000-0000-000009000000}">
-      <formula1>INDIRECT(K13)</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="L16" xr:uid="{00000000-0002-0000-0000-00000A000000}">
-      <formula1>INDIRECT(K13)</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="L17" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="L15" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>INDIRECT(K13)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13" xr:uid="{00000000-0002-0000-0000-000065000000}">
@@ -5251,20 +4763,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14" xr:uid="{00000000-0002-0000-0000-000066000000}">
       <formula1>INDIRECT(I13)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15" xr:uid="{00000000-0002-0000-0000-000067000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15" xr:uid="{00000000-0002-0000-0000-000069000000}">
       <formula1>INDIRECT(I13)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16" xr:uid="{00000000-0002-0000-0000-000068000000}">
-      <formula1>INDIRECT(I13)</formula1>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="L16:L17" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+      <formula1>INDIRECT(K16)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17" xr:uid="{00000000-0002-0000-0000-000069000000}">
-      <formula1>INDIRECT(I13)</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="L18:L21" xr:uid="{00000000-0002-0000-0000-00000C000000}">
-      <formula1>INDIRECT(K18)</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J18:J21" xr:uid="{00000000-0002-0000-0000-00006A000000}">
-      <formula1>INDIRECT(I18)</formula1>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J16:J17" xr:uid="{00000000-0002-0000-0000-00006A000000}">
+      <formula1>INDIRECT(I16)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5276,19 +4782,19 @@
           <x14:formula1>
             <xm:f>links!$M$1:$M$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I18:I21</xm:sqref>
+          <xm:sqref>I16:I17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" xr:uid="{00000000-0002-0000-0000-0000A0000000}">
           <x14:formula1>
             <xm:f>links!$P$1:$P$2</xm:f>
           </x14:formula1>
-          <xm:sqref>T18:V21</xm:sqref>
+          <xm:sqref>T16:V17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" xr:uid="{00000000-0002-0000-0000-0000A3000000}">
           <x14:formula1>
             <xm:f>links!$O$1:$O$5</xm:f>
           </x14:formula1>
-          <xm:sqref>W18:W21</xm:sqref>
+          <xm:sqref>W16:W17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5322,227 +4828,227 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.45" customHeight="1">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.45" customHeight="1">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.45" customHeight="1">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.45" customHeight="1">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.45" customHeight="1">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -5550,31 +5056,31 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -5582,31 +5088,31 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -5614,31 +5120,31 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L9">
         <v>8</v>
@@ -5646,31 +5152,31 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10">
         <v>9</v>
@@ -5678,31 +5184,31 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -5710,31 +5216,31 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L12">
         <v>11</v>
@@ -5742,31 +5248,31 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L13">
         <v>12</v>
@@ -5774,31 +5280,31 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L14">
         <v>13</v>
@@ -5806,31 +5312,31 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L15">
         <v>14</v>
@@ -5838,31 +5344,31 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L16">
         <v>15</v>
@@ -5870,31 +5376,31 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L17">
         <v>16</v>
@@ -5902,31 +5408,31 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L18">
         <v>17</v>
@@ -5934,31 +5440,31 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L19">
         <v>18</v>
@@ -5966,31 +5472,31 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L20">
         <v>19</v>
@@ -5998,31 +5504,31 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="L21">
         <v>20</v>
@@ -6030,31 +5536,31 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F22">
         <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L22">
         <v>21</v>
@@ -6062,31 +5568,31 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L23">
         <v>22</v>
@@ -6094,31 +5600,31 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L24">
         <v>23</v>
@@ -6129,19 +5635,19 @@
         <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L25">
         <v>24</v>
@@ -6152,19 +5658,19 @@
         <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L26">
         <v>25</v>
@@ -6175,19 +5681,19 @@
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L27">
         <v>26</v>
@@ -6198,19 +5704,19 @@
         <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L28">
         <v>27</v>
@@ -6221,19 +5727,19 @@
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L29">
         <v>28</v>
@@ -6244,19 +5750,19 @@
         <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L30">
         <v>29</v>
@@ -6267,19 +5773,19 @@
         <v>30</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L31">
         <v>30</v>
@@ -6290,19 +5796,19 @@
         <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L32">
         <v>31</v>
@@ -6313,19 +5819,19 @@
         <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L33">
         <v>32</v>
@@ -6336,19 +5842,19 @@
         <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L34">
         <v>33</v>
@@ -6359,19 +5865,19 @@
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L35">
         <v>34</v>
@@ -6382,19 +5888,19 @@
         <v>35</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L36">
         <v>35</v>
@@ -6405,19 +5911,19 @@
         <v>36</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L37">
         <v>36</v>
@@ -6428,19 +5934,19 @@
         <v>37</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L38">
         <v>37</v>
@@ -6451,19 +5957,19 @@
         <v>38</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L39">
         <v>38</v>
@@ -6474,19 +5980,19 @@
         <v>39</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L40">
         <v>39</v>
@@ -6497,19 +6003,19 @@
         <v>40</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L41">
         <v>40</v>
@@ -6520,19 +6026,19 @@
         <v>41</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L42">
         <v>41</v>
@@ -6543,19 +6049,19 @@
         <v>42</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L43">
         <v>42</v>
@@ -6566,19 +6072,19 @@
         <v>43</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L44">
         <v>43</v>
@@ -6589,19 +6095,19 @@
         <v>44</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L45">
         <v>44</v>
@@ -6612,19 +6118,19 @@
         <v>45</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L46">
         <v>45</v>
@@ -6635,19 +6141,19 @@
         <v>46</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L47">
         <v>46</v>
@@ -6658,19 +6164,19 @@
         <v>47</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L48">
         <v>47</v>
@@ -6681,19 +6187,19 @@
         <v>48</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L49">
         <v>48</v>
@@ -6704,19 +6210,19 @@
         <v>49</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L50">
         <v>49</v>
@@ -6727,19 +6233,19 @@
         <v>50</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -6750,19 +6256,19 @@
         <v>51</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L52">
         <v>51</v>
@@ -6773,19 +6279,19 @@
         <v>52</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L53">
         <v>52</v>
@@ -6796,19 +6302,19 @@
         <v>53</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L54">
         <v>53</v>
@@ -6819,19 +6325,19 @@
         <v>54</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L55">
         <v>54</v>
@@ -6842,19 +6348,19 @@
         <v>55</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L56">
         <v>55</v>
@@ -6865,19 +6371,19 @@
         <v>56</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L57">
         <v>56</v>
@@ -6888,19 +6394,19 @@
         <v>57</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L58">
         <v>57</v>
@@ -6911,19 +6417,19 @@
         <v>58</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L59">
         <v>58</v>
@@ -6934,19 +6440,19 @@
         <v>59</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L60">
         <v>59</v>
@@ -6957,19 +6463,19 @@
         <v>60</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L61">
         <v>60</v>
@@ -6980,19 +6486,19 @@
         <v>61</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J62" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="L62">
         <v>61</v>
@@ -7003,19 +6509,19 @@
         <v>62</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L63">
         <v>62</v>
@@ -7026,19 +6532,19 @@
         <v>63</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L64">
         <v>63</v>
@@ -7049,19 +6555,19 @@
         <v>64</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L65">
         <v>64</v>
@@ -7072,19 +6578,19 @@
         <v>65</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L66">
         <v>65</v>
@@ -7095,19 +6601,19 @@
         <v>66</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L67">
         <v>66</v>
@@ -7118,19 +6624,19 @@
         <v>67</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L68">
         <v>67</v>
@@ -7141,19 +6647,19 @@
         <v>68</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L69">
         <v>68</v>
@@ -7164,19 +6670,19 @@
         <v>69</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L70">
         <v>69</v>
@@ -7187,19 +6693,19 @@
         <v>70</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L71">
         <v>70</v>
@@ -7210,19 +6716,19 @@
         <v>71</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L72">
         <v>71</v>
@@ -7233,19 +6739,19 @@
         <v>72</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L73">
         <v>72</v>
@@ -7256,19 +6762,19 @@
         <v>73</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L74">
         <v>73</v>
@@ -7279,19 +6785,19 @@
         <v>74</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J75" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="L75">
         <v>74</v>
@@ -7302,19 +6808,19 @@
         <v>75</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L76">
         <v>75</v>
@@ -7325,19 +6831,19 @@
         <v>76</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L77">
         <v>76</v>
@@ -7348,19 +6854,19 @@
         <v>77</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L78">
         <v>77</v>
@@ -7371,19 +6877,19 @@
         <v>78</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L79">
         <v>78</v>
@@ -7394,19 +6900,19 @@
         <v>79</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L80">
         <v>79</v>
@@ -7417,19 +6923,19 @@
         <v>80</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L81">
         <v>80</v>
@@ -7440,19 +6946,19 @@
         <v>81</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L82">
         <v>81</v>
@@ -7463,19 +6969,19 @@
         <v>82</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L83">
         <v>82</v>
@@ -7486,19 +6992,19 @@
         <v>83</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L84">
         <v>83</v>
@@ -7509,19 +7015,19 @@
         <v>84</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L85">
         <v>84</v>
@@ -7532,19 +7038,19 @@
         <v>85</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L86">
         <v>85</v>
@@ -7555,19 +7061,19 @@
         <v>86</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L87">
         <v>86</v>
@@ -7578,19 +7084,19 @@
         <v>87</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L88">
         <v>87</v>
@@ -7601,19 +7107,19 @@
         <v>88</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L89">
         <v>88</v>
@@ -7624,19 +7130,19 @@
         <v>89</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L90">
         <v>89</v>
@@ -7647,19 +7153,19 @@
         <v>90</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L91">
         <v>90</v>
@@ -7670,19 +7176,19 @@
         <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L92">
         <v>91</v>
@@ -7693,19 +7199,19 @@
         <v>92</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L93">
         <v>92</v>
@@ -7716,19 +7222,19 @@
         <v>93</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L94">
         <v>93</v>
@@ -7739,19 +7245,19 @@
         <v>94</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L95">
         <v>94</v>
@@ -7762,19 +7268,19 @@
         <v>95</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L96">
         <v>95</v>
@@ -7785,19 +7291,19 @@
         <v>96</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L97">
         <v>96</v>
@@ -7808,19 +7314,19 @@
         <v>97</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L98">
         <v>97</v>
@@ -7831,19 +7337,19 @@
         <v>98</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L99">
         <v>98</v>
@@ -7854,19 +7360,19 @@
         <v>99</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L100">
         <v>99</v>
@@ -7877,19 +7383,19 @@
         <v>100</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L101">
         <v>100</v>
@@ -7900,19 +7406,19 @@
         <v>101</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L102">
         <v>101</v>
@@ -7923,19 +7429,19 @@
         <v>102</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L103">
         <v>102</v>
@@ -7946,19 +7452,19 @@
         <v>103</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L104">
         <v>103</v>
@@ -7969,19 +7475,19 @@
         <v>104</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L105">
         <v>104</v>
@@ -7992,19 +7498,19 @@
         <v>105</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L106">
         <v>105</v>
@@ -8015,19 +7521,19 @@
         <v>106</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L107">
         <v>106</v>
@@ -8038,19 +7544,19 @@
         <v>107</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L108">
         <v>107</v>
@@ -8061,19 +7567,19 @@
         <v>108</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L109">
         <v>108</v>
@@ -8084,19 +7590,19 @@
         <v>109</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L110">
         <v>109</v>
@@ -8107,19 +7613,19 @@
         <v>110</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L111">
         <v>110</v>
@@ -8130,19 +7636,19 @@
         <v>111</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L112">
         <v>111</v>
@@ -8153,19 +7659,19 @@
         <v>112</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L113">
         <v>112</v>
@@ -8176,19 +7682,19 @@
         <v>113</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L114">
         <v>113</v>
@@ -8199,19 +7705,19 @@
         <v>114</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L115">
         <v>114</v>
@@ -8222,19 +7728,19 @@
         <v>115</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L116">
         <v>115</v>
@@ -8245,19 +7751,19 @@
         <v>116</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L117">
         <v>116</v>
@@ -8268,19 +7774,19 @@
         <v>117</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L118">
         <v>117</v>
@@ -8291,19 +7797,19 @@
         <v>118</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L119">
         <v>118</v>
@@ -8314,19 +7820,19 @@
         <v>119</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L120">
         <v>119</v>
@@ -8337,19 +7843,19 @@
         <v>120</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L121">
         <v>120</v>
@@ -8360,19 +7866,19 @@
         <v>121</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L122">
         <v>121</v>
@@ -8383,19 +7889,19 @@
         <v>122</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L123">
         <v>122</v>
@@ -8406,19 +7912,19 @@
         <v>123</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L124">
         <v>123</v>
@@ -8429,19 +7935,19 @@
         <v>124</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L125">
         <v>124</v>
@@ -8452,19 +7958,19 @@
         <v>125</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L126">
         <v>125</v>
@@ -8475,19 +7981,19 @@
         <v>126</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L127">
         <v>126</v>
@@ -8498,19 +8004,19 @@
         <v>127</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L128">
         <v>127</v>
@@ -8521,19 +8027,19 @@
         <v>128</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L129">
         <v>128</v>
@@ -8544,19 +8050,19 @@
         <v>129</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L130">
         <v>129</v>
@@ -8567,19 +8073,19 @@
         <v>130</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L131">
         <v>130</v>
@@ -8590,19 +8096,19 @@
         <v>131</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L132">
         <v>131</v>
@@ -8613,19 +8119,19 @@
         <v>132</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J133" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K133" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="L133">
         <v>132</v>
@@ -8636,19 +8142,19 @@
         <v>133</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L134">
         <v>133</v>
@@ -8659,19 +8165,19 @@
         <v>134</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L135">
         <v>134</v>
@@ -8682,19 +8188,19 @@
         <v>135</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L136">
         <v>135</v>
@@ -8705,19 +8211,19 @@
         <v>136</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L137">
         <v>136</v>
@@ -8728,19 +8234,19 @@
         <v>137</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L138">
         <v>137</v>
@@ -8751,19 +8257,19 @@
         <v>138</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J139" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K139" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="L139">
         <v>138</v>
@@ -8774,19 +8280,19 @@
         <v>139</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L140">
         <v>139</v>
@@ -8797,19 +8303,19 @@
         <v>140</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L141">
         <v>140</v>
@@ -8820,19 +8326,19 @@
         <v>141</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L142">
         <v>141</v>
@@ -8843,19 +8349,19 @@
         <v>142</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L143">
         <v>142</v>
@@ -8866,19 +8372,19 @@
         <v>143</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L144">
         <v>143</v>
@@ -8889,19 +8395,19 @@
         <v>144</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L145">
         <v>144</v>
@@ -8912,19 +8418,19 @@
         <v>145</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L146">
         <v>145</v>
@@ -8935,19 +8441,19 @@
         <v>146</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L147">
         <v>146</v>
@@ -8958,19 +8464,19 @@
         <v>147</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L148">
         <v>147</v>
@@ -8981,19 +8487,19 @@
         <v>148</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L149">
         <v>148</v>
@@ -9004,19 +8510,19 @@
         <v>149</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L150">
         <v>149</v>
@@ -9027,19 +8533,19 @@
         <v>150</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L151">
         <v>150</v>
@@ -9050,19 +8556,19 @@
         <v>151</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L152">
         <v>151</v>
@@ -9073,19 +8579,19 @@
         <v>152</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L153">
         <v>152</v>
@@ -9096,19 +8602,19 @@
         <v>153</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L154">
         <v>153</v>
@@ -9119,19 +8625,19 @@
         <v>154</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L155">
         <v>154</v>
@@ -9142,19 +8648,19 @@
         <v>155</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L156">
         <v>155</v>
@@ -9165,19 +8671,19 @@
         <v>156</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L157">
         <v>156</v>
@@ -9188,19 +8694,19 @@
         <v>157</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L158">
         <v>157</v>
@@ -9211,19 +8717,19 @@
         <v>158</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L159">
         <v>158</v>
@@ -9234,19 +8740,19 @@
         <v>159</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L160">
         <v>159</v>
@@ -9257,19 +8763,19 @@
         <v>160</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L161">
         <v>160</v>
@@ -9280,19 +8786,19 @@
         <v>161</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L162">
         <v>161</v>
@@ -9303,19 +8809,19 @@
         <v>162</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L163">
         <v>162</v>
@@ -9326,19 +8832,19 @@
         <v>163</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L164">
         <v>163</v>
@@ -9349,19 +8855,19 @@
         <v>164</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L165">
         <v>164</v>
@@ -9372,19 +8878,19 @@
         <v>165</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L166">
         <v>165</v>
@@ -9395,19 +8901,19 @@
         <v>166</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L167">
         <v>166</v>
@@ -9418,19 +8924,19 @@
         <v>167</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L168">
         <v>167</v>
@@ -9441,19 +8947,19 @@
         <v>168</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L169">
         <v>168</v>
@@ -9464,19 +8970,19 @@
         <v>169</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L170">
         <v>169</v>
@@ -9487,19 +8993,19 @@
         <v>170</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L171">
         <v>170</v>
@@ -9510,19 +9016,19 @@
         <v>171</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L172">
         <v>171</v>
@@ -9533,19 +9039,19 @@
         <v>172</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L173">
         <v>172</v>
@@ -9556,19 +9062,19 @@
         <v>173</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L174">
         <v>173</v>
@@ -9579,19 +9085,19 @@
         <v>174</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L175">
         <v>174</v>
@@ -9602,19 +9108,19 @@
         <v>175</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L176">
         <v>175</v>
@@ -9625,19 +9131,19 @@
         <v>176</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L177">
         <v>176</v>
@@ -9648,19 +9154,19 @@
         <v>177</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L178">
         <v>177</v>
@@ -9671,19 +9177,19 @@
         <v>178</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L179">
         <v>178</v>
@@ -9694,19 +9200,19 @@
         <v>179</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L180">
         <v>179</v>
@@ -9717,19 +9223,19 @@
         <v>180</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L181">
         <v>180</v>
@@ -9740,19 +9246,19 @@
         <v>181</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L182">
         <v>181</v>
@@ -9763,19 +9269,19 @@
         <v>182</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L183">
         <v>182</v>
@@ -9786,19 +9292,19 @@
         <v>183</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L184">
         <v>183</v>
@@ -9809,19 +9315,19 @@
         <v>184</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L185">
         <v>184</v>
@@ -9832,19 +9338,19 @@
         <v>185</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L186">
         <v>185</v>
@@ -9855,19 +9361,19 @@
         <v>186</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L187">
         <v>186</v>
@@ -9878,19 +9384,19 @@
         <v>187</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L188">
         <v>187</v>
@@ -9901,19 +9407,19 @@
         <v>188</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L189">
         <v>188</v>
@@ -9924,19 +9430,19 @@
         <v>189</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L190">
         <v>189</v>
@@ -9947,19 +9453,19 @@
         <v>190</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L191">
         <v>190</v>
@@ -9970,19 +9476,19 @@
         <v>191</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L192">
         <v>191</v>
@@ -9993,19 +9499,19 @@
         <v>192</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L193">
         <v>192</v>
@@ -10016,19 +9522,19 @@
         <v>193</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L194">
         <v>193</v>
@@ -10039,19 +9545,19 @@
         <v>194</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L195">
         <v>194</v>
@@ -10062,19 +9568,19 @@
         <v>195</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L196">
         <v>195</v>
@@ -10085,19 +9591,19 @@
         <v>196</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L197">
         <v>196</v>
@@ -10108,19 +9614,19 @@
         <v>197</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L198">
         <v>197</v>
@@ -10131,19 +9637,19 @@
         <v>198</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L199">
         <v>198</v>
@@ -10154,19 +9660,19 @@
         <v>199</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L200">
         <v>199</v>
@@ -10177,19 +9683,19 @@
         <v>200</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L201">
         <v>200</v>
@@ -10200,19 +9706,19 @@
         <v>201</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L202">
         <v>201</v>
@@ -10223,19 +9729,19 @@
         <v>202</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L203">
         <v>202</v>
@@ -10246,19 +9752,19 @@
         <v>203</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L204">
         <v>203</v>
@@ -10269,19 +9775,19 @@
         <v>204</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L205">
         <v>204</v>
@@ -10292,19 +9798,19 @@
         <v>205</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L206">
         <v>205</v>
@@ -10315,19 +9821,19 @@
         <v>206</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L207">
         <v>206</v>
@@ -10338,19 +9844,19 @@
         <v>207</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L208">
         <v>207</v>
@@ -10361,19 +9867,19 @@
         <v>208</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L209">
         <v>208</v>
@@ -10384,19 +9890,19 @@
         <v>209</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L210">
         <v>209</v>
@@ -10407,19 +9913,19 @@
         <v>210</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L211">
         <v>210</v>
@@ -10430,19 +9936,19 @@
         <v>211</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L212">
         <v>211</v>
@@ -10453,19 +9959,19 @@
         <v>212</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L213">
         <v>212</v>
@@ -10476,19 +9982,19 @@
         <v>213</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L214">
         <v>213</v>
@@ -10499,19 +10005,19 @@
         <v>214</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L215">
         <v>214</v>
@@ -10522,19 +10028,19 @@
         <v>215</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L216">
         <v>215</v>
@@ -10545,19 +10051,19 @@
         <v>216</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L217">
         <v>216</v>
@@ -10568,19 +10074,19 @@
         <v>217</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L218">
         <v>217</v>
@@ -10591,19 +10097,19 @@
         <v>218</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L219">
         <v>218</v>
@@ -10614,19 +10120,19 @@
         <v>219</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="L220">
         <v>219</v>
@@ -10637,19 +10143,19 @@
         <v>220</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L221">
         <v>220</v>
@@ -10660,19 +10166,19 @@
         <v>221</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="L222">
         <v>221</v>

--- a/data/em.xlsx
+++ b/data/em.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27203"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_366\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{687505F7-3816-47F1-A858-CE454F9D78FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{043A32F3-EE74-4EEC-9F20-533AA8579881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,19 +73,19 @@
     <t>Office Code :</t>
   </si>
   <si>
-    <t>4-15-2000</t>
-  </si>
-  <si>
-    <t>BLD-TLD</t>
+    <t>PLEASE ENTER OFFICE CODE</t>
   </si>
   <si>
     <t>Office Name :</t>
   </si>
   <si>
-    <t>BLD - Teaching and Learning Division</t>
+    <t>PLEASE ENTER OFFICE NAME</t>
   </si>
   <si>
     <t>Fiscal Year :</t>
+  </si>
+  <si>
+    <t>PLEASE ENTER FISCAL YEAR</t>
   </si>
   <si>
     <t>PAP</t>
@@ -1727,7 +1727,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1788,6 +1788,18 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -2000,7 +2012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2271,6 +2283,130 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2292,15 +2428,9 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="9" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2309,27 +2439,6 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2349,105 +2458,20 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2756,8 +2780,8 @@
   <dimension ref="A1:EB32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="F13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD18"/>
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -2814,14 +2838,14 @@
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
       <c r="J3" s="14"/>
@@ -2887,22 +2911,20 @@
       <c r="BR3" s="17"/>
       <c r="BS3" s="17"/>
       <c r="BT3" s="17"/>
-      <c r="BU3" s="17" t="s">
-        <v>3</v>
-      </c>
+      <c r="BU3" s="17"/>
     </row>
     <row r="4" spans="1:118" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
       <c r="H4" s="19"/>
       <c r="I4" s="13"/>
       <c r="J4" s="19"/>
@@ -2972,16 +2994,16 @@
     </row>
     <row r="5" spans="1:118" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19">
-        <v>2024</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
       <c r="J5" s="14"/>
@@ -3125,7 +3147,7 @@
     <row r="7" spans="1:118" ht="21" customHeight="1">
       <c r="A7" s="24" t="str">
         <f>CONCATENATE("FY ",B5," EXPENDITURE FORM")</f>
-        <v>FY 2024 EXPENDITURE FORM</v>
+        <v>FY PLEASE ENTER FISCAL YEAR EXPENDITURE FORM</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -3200,283 +3222,283 @@
     </row>
     <row r="8" spans="1:118" ht="17.25" customHeight="1"/>
     <row r="9" spans="1:118" ht="21.6" customHeight="1">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="91" t="s">
+      <c r="I9" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="91" t="s">
+      <c r="J9" s="110" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="25"/>
-      <c r="L9" s="91" t="s">
+      <c r="L9" s="110" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="85" t="s">
+      <c r="N9" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="107" t="s">
+      <c r="O9" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="79" t="s">
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="123" t="s">
+      <c r="T9" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="123" t="s">
+      <c r="U9" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="123" t="s">
+      <c r="V9" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="W9" s="123" t="s">
+      <c r="W9" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="X9" s="112" t="str">
+      <c r="X9" s="115" t="e">
         <f>CONCATENATE("FY ",B5-1," Physical Target")</f>
-        <v>FY 2023 Physical Target</v>
-      </c>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="110" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="115"/>
+      <c r="AA9" s="115"/>
+      <c r="AB9" s="115"/>
+      <c r="AC9" s="115"/>
+      <c r="AD9" s="115"/>
+      <c r="AE9" s="113" t="str">
         <f>CONCATENATE("FY ",B5," Physical Target")</f>
-        <v>FY 2024 Physical Target</v>
-      </c>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="110"/>
-      <c r="AJ9" s="110"/>
-      <c r="AK9" s="110"/>
-      <c r="AL9" s="110"/>
-      <c r="AM9" s="110"/>
-      <c r="AN9" s="110"/>
-      <c r="AO9" s="110"/>
-      <c r="AP9" s="110"/>
-      <c r="AQ9" s="111"/>
-      <c r="AR9" s="103" t="str">
+        <v>FY PLEASE ENTER FISCAL YEAR Physical Target</v>
+      </c>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="113"/>
+      <c r="AI9" s="113"/>
+      <c r="AJ9" s="113"/>
+      <c r="AK9" s="113"/>
+      <c r="AL9" s="113"/>
+      <c r="AM9" s="113"/>
+      <c r="AN9" s="113"/>
+      <c r="AO9" s="113"/>
+      <c r="AP9" s="113"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="102" t="str">
         <f>CONCATENATE("FY ",B5," FINANCIAL OBLIGATION PROGRAM")</f>
-        <v>FY 2024 FINANCIAL OBLIGATION PROGRAM</v>
-      </c>
-      <c r="AS9" s="104"/>
-      <c r="AT9" s="104"/>
-      <c r="AU9" s="104"/>
-      <c r="AV9" s="104"/>
-      <c r="AW9" s="104"/>
-      <c r="AX9" s="104"/>
-      <c r="AY9" s="104"/>
-      <c r="AZ9" s="104"/>
-      <c r="BA9" s="104"/>
-      <c r="BB9" s="104"/>
-      <c r="BC9" s="104"/>
-      <c r="BD9" s="105"/>
-      <c r="BE9" s="133" t="str">
+        <v>FY PLEASE ENTER FISCAL YEAR FINANCIAL OBLIGATION PROGRAM</v>
+      </c>
+      <c r="AS9" s="103"/>
+      <c r="AT9" s="103"/>
+      <c r="AU9" s="103"/>
+      <c r="AV9" s="103"/>
+      <c r="AW9" s="103"/>
+      <c r="AX9" s="103"/>
+      <c r="AY9" s="103"/>
+      <c r="AZ9" s="103"/>
+      <c r="BA9" s="103"/>
+      <c r="BB9" s="103"/>
+      <c r="BC9" s="103"/>
+      <c r="BD9" s="104"/>
+      <c r="BE9" s="95" t="str">
         <f>CONCATENATE("FY ",B5," FINANCIAL DISBURSEMENT PROGRAM")</f>
-        <v>FY 2024 FINANCIAL DISBURSEMENT PROGRAM</v>
-      </c>
-      <c r="BF9" s="134"/>
-      <c r="BG9" s="134"/>
-      <c r="BH9" s="134"/>
-      <c r="BI9" s="134"/>
-      <c r="BJ9" s="134"/>
-      <c r="BK9" s="134"/>
-      <c r="BL9" s="134"/>
-      <c r="BM9" s="134"/>
-      <c r="BN9" s="134"/>
-      <c r="BO9" s="134"/>
-      <c r="BP9" s="134"/>
-      <c r="BQ9" s="135"/>
-      <c r="BR9" s="124" t="str">
+        <v>FY PLEASE ENTER FISCAL YEAR FINANCIAL DISBURSEMENT PROGRAM</v>
+      </c>
+      <c r="BF9" s="96"/>
+      <c r="BG9" s="96"/>
+      <c r="BH9" s="96"/>
+      <c r="BI9" s="96"/>
+      <c r="BJ9" s="96"/>
+      <c r="BK9" s="96"/>
+      <c r="BL9" s="96"/>
+      <c r="BM9" s="96"/>
+      <c r="BN9" s="96"/>
+      <c r="BO9" s="96"/>
+      <c r="BP9" s="96"/>
+      <c r="BQ9" s="97"/>
+      <c r="BR9" s="82" t="e">
         <f>CONCATENATE("FY ",B5+1," FINANCIAL DISBURSEMENT PROGRAM")</f>
-        <v>FY 2025 FINANCIAL DISBURSEMENT PROGRAM</v>
-      </c>
-      <c r="BS9" s="125"/>
-      <c r="BT9" s="125"/>
-      <c r="BU9" s="126"/>
-      <c r="BV9" s="88" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS9" s="83"/>
+      <c r="BT9" s="83"/>
+      <c r="BU9" s="84"/>
+      <c r="BV9" s="127" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:118" ht="18.600000000000001" customHeight="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
       <c r="K10" s="26"/>
-      <c r="L10" s="92"/>
+      <c r="L10" s="111"/>
       <c r="M10" s="26"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="87" t="s">
+      <c r="N10" s="105"/>
+      <c r="O10" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="86" t="s">
+      <c r="P10" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="87" t="s">
+      <c r="Q10" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="86" t="s">
+      <c r="R10" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="S10" s="80"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="123"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="132" t="s">
+      <c r="S10" s="121"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="Y10" s="113" t="s">
+      <c r="Y10" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="132" t="s">
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="132"/>
-      <c r="AE10" s="98" t="s">
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="AF10" s="97" t="s">
+      <c r="AF10" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="97" t="s">
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="97"/>
-      <c r="AL10" s="97" t="s">
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="AM10" s="97"/>
-      <c r="AN10" s="97"/>
-      <c r="AO10" s="97" t="s">
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="AP10" s="97"/>
-      <c r="AQ10" s="97"/>
-      <c r="AR10" s="117" t="s">
+      <c r="AP10" s="116"/>
+      <c r="AQ10" s="116"/>
+      <c r="AR10" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="AS10" s="116" t="s">
+      <c r="AS10" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="AT10" s="116"/>
-      <c r="AU10" s="116"/>
-      <c r="AV10" s="116" t="s">
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="AW10" s="116"/>
-      <c r="AX10" s="116"/>
-      <c r="AY10" s="116" t="s">
+      <c r="AW10" s="93"/>
+      <c r="AX10" s="93"/>
+      <c r="AY10" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="AZ10" s="116"/>
-      <c r="BA10" s="116"/>
-      <c r="BB10" s="116" t="s">
+      <c r="AZ10" s="93"/>
+      <c r="BA10" s="93"/>
+      <c r="BB10" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="BC10" s="116"/>
-      <c r="BD10" s="116"/>
-      <c r="BE10" s="119" t="s">
+      <c r="BC10" s="93"/>
+      <c r="BD10" s="93"/>
+      <c r="BE10" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="BF10" s="94" t="s">
+      <c r="BF10" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="BG10" s="95"/>
-      <c r="BH10" s="96"/>
-      <c r="BI10" s="94" t="s">
+      <c r="BG10" s="91"/>
+      <c r="BH10" s="92"/>
+      <c r="BI10" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="BJ10" s="95"/>
-      <c r="BK10" s="96"/>
-      <c r="BL10" s="94" t="s">
+      <c r="BJ10" s="91"/>
+      <c r="BK10" s="92"/>
+      <c r="BL10" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="BM10" s="95"/>
-      <c r="BN10" s="96"/>
-      <c r="BO10" s="94" t="s">
+      <c r="BM10" s="91"/>
+      <c r="BN10" s="92"/>
+      <c r="BO10" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="BP10" s="95"/>
-      <c r="BQ10" s="96"/>
-      <c r="BR10" s="127" t="s">
+      <c r="BP10" s="91"/>
+      <c r="BQ10" s="92"/>
+      <c r="BR10" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="BS10" s="129" t="s">
+      <c r="BS10" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="BT10" s="130"/>
-      <c r="BU10" s="131"/>
-      <c r="BV10" s="89"/>
+      <c r="BT10" s="88"/>
+      <c r="BU10" s="89"/>
+      <c r="BV10" s="128"/>
     </row>
     <row r="11" spans="1:118" ht="25.15" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
       <c r="K11" s="28"/>
-      <c r="L11" s="93"/>
+      <c r="L11" s="112"/>
       <c r="M11" s="28"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="132"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="94"/>
       <c r="Y11" s="27" t="s">
         <v>37</v>
       </c>
@@ -3495,7 +3517,7 @@
       <c r="AD11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AE11" s="99"/>
+      <c r="AE11" s="131"/>
       <c r="AF11" s="29" t="s">
         <v>43</v>
       </c>
@@ -3532,7 +3554,7 @@
       <c r="AQ11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AR11" s="118"/>
+      <c r="AR11" s="99"/>
       <c r="AS11" s="30" t="s">
         <v>43</v>
       </c>
@@ -3569,7 +3591,7 @@
       <c r="BD11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="BE11" s="120"/>
+      <c r="BE11" s="101"/>
       <c r="BF11" s="31" t="s">
         <v>43</v>
       </c>
@@ -3606,7 +3628,7 @@
       <c r="BQ11" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="BR11" s="128"/>
+      <c r="BR11" s="86"/>
       <c r="BS11" s="32" t="s">
         <v>43</v>
       </c>
@@ -3616,85 +3638,85 @@
       <c r="BU11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="BV11" s="90"/>
+      <c r="BV11" s="129"/>
     </row>
     <row r="12" spans="1:118" ht="24" customHeight="1">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="101"/>
-      <c r="AD12" s="101"/>
-      <c r="AE12" s="101"/>
-      <c r="AF12" s="101"/>
-      <c r="AG12" s="101"/>
-      <c r="AH12" s="101"/>
-      <c r="AI12" s="101"/>
-      <c r="AJ12" s="101"/>
-      <c r="AK12" s="101"/>
-      <c r="AL12" s="101"/>
-      <c r="AM12" s="101"/>
-      <c r="AN12" s="101"/>
-      <c r="AO12" s="101"/>
-      <c r="AP12" s="101"/>
-      <c r="AQ12" s="101"/>
-      <c r="AR12" s="101"/>
-      <c r="AS12" s="101"/>
-      <c r="AT12" s="101"/>
-      <c r="AU12" s="101"/>
-      <c r="AV12" s="101"/>
-      <c r="AW12" s="101"/>
-      <c r="AX12" s="101"/>
-      <c r="AY12" s="101"/>
-      <c r="AZ12" s="101"/>
-      <c r="BA12" s="101"/>
-      <c r="BB12" s="101"/>
-      <c r="BC12" s="101"/>
-      <c r="BD12" s="101"/>
-      <c r="BE12" s="101"/>
-      <c r="BF12" s="101"/>
-      <c r="BG12" s="101"/>
-      <c r="BH12" s="101"/>
-      <c r="BI12" s="101"/>
-      <c r="BJ12" s="101"/>
-      <c r="BK12" s="101"/>
-      <c r="BL12" s="101"/>
-      <c r="BM12" s="101"/>
-      <c r="BN12" s="101"/>
-      <c r="BO12" s="101"/>
-      <c r="BP12" s="101"/>
-      <c r="BQ12" s="101"/>
-      <c r="BR12" s="101"/>
-      <c r="BS12" s="101"/>
-      <c r="BT12" s="101"/>
-      <c r="BU12" s="101"/>
-      <c r="BV12" s="102"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="133"/>
+      <c r="AB12" s="133"/>
+      <c r="AC12" s="133"/>
+      <c r="AD12" s="133"/>
+      <c r="AE12" s="133"/>
+      <c r="AF12" s="133"/>
+      <c r="AG12" s="133"/>
+      <c r="AH12" s="133"/>
+      <c r="AI12" s="133"/>
+      <c r="AJ12" s="133"/>
+      <c r="AK12" s="133"/>
+      <c r="AL12" s="133"/>
+      <c r="AM12" s="133"/>
+      <c r="AN12" s="133"/>
+      <c r="AO12" s="133"/>
+      <c r="AP12" s="133"/>
+      <c r="AQ12" s="133"/>
+      <c r="AR12" s="133"/>
+      <c r="AS12" s="133"/>
+      <c r="AT12" s="133"/>
+      <c r="AU12" s="133"/>
+      <c r="AV12" s="133"/>
+      <c r="AW12" s="133"/>
+      <c r="AX12" s="133"/>
+      <c r="AY12" s="133"/>
+      <c r="AZ12" s="133"/>
+      <c r="BA12" s="133"/>
+      <c r="BB12" s="133"/>
+      <c r="BC12" s="133"/>
+      <c r="BD12" s="133"/>
+      <c r="BE12" s="133"/>
+      <c r="BF12" s="133"/>
+      <c r="BG12" s="133"/>
+      <c r="BH12" s="133"/>
+      <c r="BI12" s="133"/>
+      <c r="BJ12" s="133"/>
+      <c r="BK12" s="133"/>
+      <c r="BL12" s="133"/>
+      <c r="BM12" s="133"/>
+      <c r="BN12" s="133"/>
+      <c r="BO12" s="133"/>
+      <c r="BP12" s="133"/>
+      <c r="BQ12" s="133"/>
+      <c r="BR12" s="133"/>
+      <c r="BS12" s="133"/>
+      <c r="BT12" s="133"/>
+      <c r="BU12" s="133"/>
+      <c r="BV12" s="134"/>
       <c r="BW12" s="6">
         <v>57</v>
       </c>
@@ -4405,80 +4427,80 @@
       </c>
     </row>
     <row r="18" spans="1:81" ht="7.5" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="83"/>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="83"/>
-      <c r="AJ18" s="83"/>
-      <c r="AK18" s="83"/>
-      <c r="AL18" s="83"/>
-      <c r="AM18" s="83"/>
-      <c r="AN18" s="83"/>
-      <c r="AO18" s="83"/>
-      <c r="AP18" s="83"/>
-      <c r="AQ18" s="83"/>
-      <c r="AR18" s="83"/>
-      <c r="AS18" s="83"/>
-      <c r="AT18" s="83"/>
-      <c r="AU18" s="83"/>
-      <c r="AV18" s="83"/>
-      <c r="AW18" s="83"/>
-      <c r="AX18" s="83"/>
-      <c r="AY18" s="83"/>
-      <c r="AZ18" s="83"/>
-      <c r="BA18" s="83"/>
-      <c r="BB18" s="83"/>
-      <c r="BC18" s="83"/>
-      <c r="BD18" s="83"/>
-      <c r="BE18" s="83"/>
-      <c r="BF18" s="83"/>
-      <c r="BG18" s="83"/>
-      <c r="BH18" s="83"/>
-      <c r="BI18" s="83"/>
-      <c r="BJ18" s="83"/>
-      <c r="BK18" s="83"/>
-      <c r="BL18" s="83"/>
-      <c r="BM18" s="83"/>
-      <c r="BN18" s="83"/>
-      <c r="BO18" s="83"/>
-      <c r="BP18" s="83"/>
-      <c r="BQ18" s="83"/>
-      <c r="BR18" s="83"/>
-      <c r="BS18" s="83"/>
-      <c r="BT18" s="83"/>
-      <c r="BU18" s="83"/>
-      <c r="BV18" s="84"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="124"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="124"/>
+      <c r="AF18" s="124"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="124"/>
+      <c r="AJ18" s="124"/>
+      <c r="AK18" s="124"/>
+      <c r="AL18" s="124"/>
+      <c r="AM18" s="124"/>
+      <c r="AN18" s="124"/>
+      <c r="AO18" s="124"/>
+      <c r="AP18" s="124"/>
+      <c r="AQ18" s="124"/>
+      <c r="AR18" s="124"/>
+      <c r="AS18" s="124"/>
+      <c r="AT18" s="124"/>
+      <c r="AU18" s="124"/>
+      <c r="AV18" s="124"/>
+      <c r="AW18" s="124"/>
+      <c r="AX18" s="124"/>
+      <c r="AY18" s="124"/>
+      <c r="AZ18" s="124"/>
+      <c r="BA18" s="124"/>
+      <c r="BB18" s="124"/>
+      <c r="BC18" s="124"/>
+      <c r="BD18" s="124"/>
+      <c r="BE18" s="124"/>
+      <c r="BF18" s="124"/>
+      <c r="BG18" s="124"/>
+      <c r="BH18" s="124"/>
+      <c r="BI18" s="124"/>
+      <c r="BJ18" s="124"/>
+      <c r="BK18" s="124"/>
+      <c r="BL18" s="124"/>
+      <c r="BM18" s="124"/>
+      <c r="BN18" s="124"/>
+      <c r="BO18" s="124"/>
+      <c r="BP18" s="124"/>
+      <c r="BQ18" s="124"/>
+      <c r="BR18" s="124"/>
+      <c r="BS18" s="124"/>
+      <c r="BT18" s="124"/>
+      <c r="BU18" s="124"/>
+      <c r="BV18" s="125"/>
     </row>
     <row r="19" spans="1:81" ht="24" customHeight="1">
       <c r="A19" s="60" t="s">
@@ -4590,17 +4612,17 @@
       <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:81" ht="15" customHeight="1">
-      <c r="A26" s="122"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="72"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="122"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
     </row>
     <row r="27" spans="1:81" ht="15" customHeight="1">
       <c r="A27" s="70" t="s">
@@ -4633,16 +4655,16 @@
       <c r="O28" s="74"/>
     </row>
     <row r="29" spans="1:81" ht="15" customHeight="1">
-      <c r="A29" s="121"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
     </row>
     <row r="30" spans="1:81" ht="15" customHeight="1">
       <c r="A30" s="70" t="s">
@@ -4678,6 +4700,49 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="59">
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="A18:BV18"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="BV9:BV11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="BO10:BQ10"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="A12:BV12"/>
+    <mergeCell ref="AR9:BD9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="AE9:AQ9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AS10:AU10"/>
+    <mergeCell ref="AV10:AX10"/>
+    <mergeCell ref="AY10:BA10"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="BE10:BE11"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="W9:W11"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="N29:P29"/>
@@ -4694,49 +4759,6 @@
     <mergeCell ref="BE9:BQ9"/>
     <mergeCell ref="AB10:AD10"/>
     <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AV10:AX10"/>
-    <mergeCell ref="AY10:BA10"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="BE10:BE11"/>
-    <mergeCell ref="AR9:BD9"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="AE9:AQ9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="A18:BV18"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="BV9:BV11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="BO10:BQ10"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="A12:BV12"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="This is a required field." sqref="M13" xr:uid="{00000000-0002-0000-0000-000000000000}">
